--- a/inst/testdata/str-animal-alleles.xlsx
+++ b/inst/testdata/str-animal-alleles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msharp/Documents/Development/R/r_workspace/parentfindr/inst/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6632FCC9-4398-6B49-9C11-BCA20EC3699E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9049ECA8-716D-F546-B184-F0B0A7F2F6B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="460" windowWidth="25820" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13840" yWindow="4120" windowWidth="25820" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>sex</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>AN25</t>
+  </si>
+  <si>
+    <t>124,170</t>
   </si>
 </sst>
 </file>
@@ -193,9 +196,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -680,8 +684,8 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1">
-        <v>124170</v>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="1">
         <v>160162</v>
